--- a/data/trans_bre/P15E_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15E_R-Edad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>9.65158587596353</v>
+        <v>9.651585875963509</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.1693592771093121</v>
+        <v>0.1693592771093117</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-14.36371183157576</v>
+        <v>-13.18865725614457</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1930870124495173</v>
+        <v>-0.1761531013384187</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>36.07221542967275</v>
+        <v>33.94163598026523</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.000026207962101</v>
+        <v>0.9288716492836134</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>7.879143095688567</v>
+        <v>7.879143095688557</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1148115873871928</v>
+        <v>0.1148115873871925</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.886931121115154</v>
+        <v>-9.533516284541291</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1026919910408351</v>
+        <v>-0.11578167676559</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>26.63378656170398</v>
+        <v>25.90468902295327</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5042868940681957</v>
+        <v>0.4792866111340056</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>8.902666934337322</v>
+        <v>8.902666934337333</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.1390662433073198</v>
+        <v>0.13906624330732</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.715311063267312</v>
+        <v>-5.021279215627996</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.08729650589058829</v>
+        <v>-0.06694164860009816</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.68677826600818</v>
+        <v>23.7276209768889</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.4459724706913721</v>
+        <v>0.4551849865324136</v>
       </c>
     </row>
     <row r="13">
